--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.0176341983346</v>
+        <v>478.4473660349933</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.1156717205232</v>
+        <v>654.6327938171679</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.1446321738841</v>
+        <v>592.1555587581532</v>
       </c>
       <c r="AD2" t="n">
-        <v>375017.6341983346</v>
+        <v>478447.3660349933</v>
       </c>
       <c r="AE2" t="n">
-        <v>513115.6717205232</v>
+        <v>654632.7938171679</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.388399602700133e-06</v>
+        <v>2.001606299928178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.88802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>464144.6321738841</v>
+        <v>592155.5587581532</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.9471476492151</v>
+        <v>360.4768656079743</v>
       </c>
       <c r="AB3" t="n">
-        <v>387.1407701608234</v>
+        <v>493.2203506417565</v>
       </c>
       <c r="AC3" t="n">
-        <v>350.1925984121571</v>
+        <v>446.1480926156163</v>
       </c>
       <c r="AD3" t="n">
-        <v>282947.1476492151</v>
+        <v>360476.8656079744</v>
       </c>
       <c r="AE3" t="n">
-        <v>387140.7701608234</v>
+        <v>493220.3506417564</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.746901830228988e-06</v>
+        <v>2.518446203774667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>350192.5984121571</v>
+        <v>446148.0926156163</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.346790745044</v>
+        <v>326.3284817628946</v>
       </c>
       <c r="AB4" t="n">
-        <v>352.113232436333</v>
+        <v>446.497025344548</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.5080397267402</v>
+        <v>403.8839759081745</v>
       </c>
       <c r="AD4" t="n">
-        <v>257346.790745044</v>
+        <v>326328.4817628946</v>
       </c>
       <c r="AE4" t="n">
-        <v>352113.232436333</v>
+        <v>446497.025344548</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.88923834845745e-06</v>
+        <v>2.723647696948434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>318508.0397267402</v>
+        <v>403883.9759081745</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.4678344558784</v>
+        <v>308.3641846191571</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.6504556776256</v>
+        <v>421.9174814636303</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.3799560481531</v>
+        <v>381.650269197645</v>
       </c>
       <c r="AD5" t="n">
-        <v>239467.8344558784</v>
+        <v>308364.1846191571</v>
       </c>
       <c r="AE5" t="n">
-        <v>327650.4556776256</v>
+        <v>421917.4814636303</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.966101935621492e-06</v>
+        <v>2.834459195312031e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.45572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>296379.9560481531</v>
+        <v>381650.269197645</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.286517854597</v>
+        <v>293.7201819315354</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.1929056033144</v>
+        <v>401.8809109386235</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.7295826826854</v>
+        <v>363.5259608420415</v>
       </c>
       <c r="AD6" t="n">
-        <v>233286.517854597</v>
+        <v>293720.1819315354</v>
       </c>
       <c r="AE6" t="n">
-        <v>319192.9056033144</v>
+        <v>401880.9109386235</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.003705105655283e-06</v>
+        <v>2.888670347411562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.16927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>288729.5826826854</v>
+        <v>363525.9608420415</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>218.8277008348182</v>
+        <v>287.8093023441172</v>
       </c>
       <c r="AB7" t="n">
-        <v>299.4097142788751</v>
+        <v>393.7933847175146</v>
       </c>
       <c r="AC7" t="n">
-        <v>270.834471372361</v>
+        <v>356.2102967725609</v>
       </c>
       <c r="AD7" t="n">
-        <v>218827.7008348182</v>
+        <v>287809.3023441171</v>
       </c>
       <c r="AE7" t="n">
-        <v>299409.7142788752</v>
+        <v>393793.3847175146</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.035986411773676e-06</v>
+        <v>2.935209157686951e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>270834.4713723609</v>
+        <v>356210.2967725609</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>217.9603318401109</v>
+        <v>286.9419333494099</v>
       </c>
       <c r="AB8" t="n">
-        <v>298.222941754698</v>
+        <v>392.6066121933368</v>
       </c>
       <c r="AC8" t="n">
-        <v>269.7609627522451</v>
+        <v>355.136788152445</v>
       </c>
       <c r="AD8" t="n">
-        <v>217960.3318401109</v>
+        <v>286941.9333494099</v>
       </c>
       <c r="AE8" t="n">
-        <v>298222.9417546979</v>
+        <v>392606.6121933368</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.045252990608819e-06</v>
+        <v>2.948568454635128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.85677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>269760.9627522451</v>
+        <v>355136.788152445</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.8938718683763</v>
+        <v>395.0681074184065</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.378711159937</v>
+        <v>540.5496137446747</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.7811639896025</v>
+        <v>488.96031727503</v>
       </c>
       <c r="AD2" t="n">
-        <v>310893.8718683763</v>
+        <v>395068.1074184065</v>
       </c>
       <c r="AE2" t="n">
-        <v>425378.711159937</v>
+        <v>540549.6137446747</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.59975152456209e-06</v>
+        <v>2.341976050981703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>384781.1639896025</v>
+        <v>488960.31727503</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.8257825972044</v>
+        <v>313.0799196912112</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.3496808174592</v>
+        <v>428.3697582327629</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.248939350083</v>
+        <v>387.486749727759</v>
       </c>
       <c r="AD3" t="n">
-        <v>245825.7825972044</v>
+        <v>313079.9196912111</v>
       </c>
       <c r="AE3" t="n">
-        <v>336349.6808174592</v>
+        <v>428369.7582327629</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.932972726019508e-06</v>
+        <v>2.829799354482692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.26302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>304248.939350083</v>
+        <v>387486.749727759</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.7034134211186</v>
+        <v>291.8722096605534</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.4491234575921</v>
+        <v>399.3524337506832</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.1066106224453</v>
+        <v>361.2387979681782</v>
       </c>
       <c r="AD4" t="n">
-        <v>224703.4134211186</v>
+        <v>291872.2096605534</v>
       </c>
       <c r="AE4" t="n">
-        <v>307449.123457592</v>
+        <v>399352.4337506832</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.052304550483461e-06</v>
+        <v>3.00449665635964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.32552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>278106.6106224453</v>
+        <v>361238.7979681782</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.1522696296177</v>
+        <v>274.4063172150728</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.4348742202559</v>
+        <v>375.4548291659839</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.3842476281023</v>
+        <v>339.621947224544</v>
       </c>
       <c r="AD5" t="n">
-        <v>207152.2696296177</v>
+        <v>274406.3172150728</v>
       </c>
       <c r="AE5" t="n">
-        <v>283434.8742202559</v>
+        <v>375454.8291659839</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.128124447046961e-06</v>
+        <v>3.115494132663488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.77864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>256384.2476281024</v>
+        <v>339621.947224544</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>205.343122069101</v>
+        <v>272.5971696545561</v>
       </c>
       <c r="AB6" t="n">
-        <v>280.9595187140008</v>
+        <v>372.9794736597276</v>
       </c>
       <c r="AC6" t="n">
-        <v>254.1451365771802</v>
+        <v>337.3828361736215</v>
       </c>
       <c r="AD6" t="n">
-        <v>205343.122069101</v>
+        <v>272597.1696545561</v>
       </c>
       <c r="AE6" t="n">
-        <v>280959.5187140008</v>
+        <v>372979.4736597276</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.136551562938891e-06</v>
+        <v>3.127831113309999e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>254145.1365771802</v>
+        <v>337382.8361736215</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.4585122489791</v>
+        <v>250.4262299223049</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.8572506617085</v>
+        <v>342.6442158050705</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.2477165635545</v>
+        <v>309.942732752914</v>
       </c>
       <c r="AD2" t="n">
-        <v>188458.5122489791</v>
+        <v>250426.2299223049</v>
       </c>
       <c r="AE2" t="n">
-        <v>257857.2506617085</v>
+        <v>342644.2158050705</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.282474713451726e-06</v>
+        <v>3.531270114217288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>233247.7165635545</v>
+        <v>309942.732752914</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.6392707347682</v>
+        <v>235.6922397541146</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.5809106431811</v>
+        <v>322.4845204391924</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.906521978367</v>
+        <v>291.7070504184387</v>
       </c>
       <c r="AD3" t="n">
-        <v>173639.2707347682</v>
+        <v>235692.2397541146</v>
       </c>
       <c r="AE3" t="n">
-        <v>237580.9106431811</v>
+        <v>322484.5204391924</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.38329892227381e-06</v>
+        <v>3.687257610291057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>214906.521978367</v>
+        <v>291707.0504184387</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6957903268388</v>
+        <v>297.8036390779712</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.8069373205769</v>
+        <v>407.4680771557918</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.334836636051</v>
+        <v>368.5798957570804</v>
       </c>
       <c r="AD2" t="n">
-        <v>225695.7903268388</v>
+        <v>297803.6390779712</v>
       </c>
       <c r="AE2" t="n">
-        <v>308806.9373205769</v>
+        <v>407468.0771557918</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.003703350407676e-06</v>
+        <v>3.028184788012997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279334.836636051</v>
+        <v>368579.8957570804</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.1692031179038</v>
+        <v>251.255586357288</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.0931610282678</v>
+        <v>343.7789778680375</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.6519891688135</v>
+        <v>310.9691947172403</v>
       </c>
       <c r="AD3" t="n">
-        <v>187169.2031179038</v>
+        <v>251255.586357288</v>
       </c>
       <c r="AE3" t="n">
-        <v>256093.1610282678</v>
+        <v>343778.9778680375</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.278067444134222e-06</v>
+        <v>3.442829588018276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>231651.9891688135</v>
+        <v>310969.1947172403</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.2203859645884</v>
+        <v>249.3067692039726</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.426703423358</v>
+        <v>341.1125202631277</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.2400145353187</v>
+        <v>308.5572200837456</v>
       </c>
       <c r="AD4" t="n">
-        <v>185220.3859645884</v>
+        <v>249306.7692039726</v>
       </c>
       <c r="AE4" t="n">
-        <v>253426.703423358</v>
+        <v>341112.5202631277</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298611241832461e-06</v>
+        <v>3.473877305568465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>229240.0145353187</v>
+        <v>308557.2200837455</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.4552570185243</v>
+        <v>225.3670279870627</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.9608908416185</v>
+        <v>308.3571101833247</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.4411145929529</v>
+        <v>278.9279403694417</v>
       </c>
       <c r="AD2" t="n">
-        <v>172455.2570185243</v>
+        <v>225367.0279870627</v>
       </c>
       <c r="AE2" t="n">
-        <v>235960.8908416185</v>
+        <v>308357.1101833247</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42706880339212e-06</v>
+        <v>3.835953095496264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>213441.1145929529</v>
+        <v>278927.9403694417</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.5120192134428</v>
+        <v>415.1685943918255</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.2211258490344</v>
+        <v>568.0519867926065</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.0617762943382</v>
+        <v>513.8379024390902</v>
       </c>
       <c r="AD2" t="n">
-        <v>330512.0192134428</v>
+        <v>415168.5943918255</v>
       </c>
       <c r="AE2" t="n">
-        <v>452221.1258490344</v>
+        <v>568051.9867926065</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543504345036266e-06</v>
+        <v>2.250253821499039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>409061.7762943382</v>
+        <v>513837.9024390902</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.3589338511772</v>
+        <v>329.5412368685717</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.6568707023177</v>
+        <v>450.8928586168874</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.5724254985657</v>
+        <v>407.8602770225925</v>
       </c>
       <c r="AD3" t="n">
-        <v>253358.9338511772</v>
+        <v>329541.2368685717</v>
       </c>
       <c r="AE3" t="n">
-        <v>346656.8707023177</v>
+        <v>450892.8586168874</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.879116394881754e-06</v>
+        <v>2.739538027361245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>313572.4254985657</v>
+        <v>407860.2770225925</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.9285956226651</v>
+        <v>298.7220568421906</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.9666923813996</v>
+        <v>408.724696858529</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.8112747226504</v>
+        <v>369.7165854390651</v>
       </c>
       <c r="AD4" t="n">
-        <v>230928.5956226651</v>
+        <v>298722.0568421906</v>
       </c>
       <c r="AE4" t="n">
-        <v>315966.6923813996</v>
+        <v>408724.696858529</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.007929205171826e-06</v>
+        <v>2.92733245731891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>285811.2747226504</v>
+        <v>369716.5854390651</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.7477455764634</v>
+        <v>280.4558659414171</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.090851265703</v>
+        <v>383.7320886206219</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.3095489695658</v>
+        <v>347.1092366540379</v>
       </c>
       <c r="AD5" t="n">
-        <v>212747.7455764634</v>
+        <v>280455.8659414171</v>
       </c>
       <c r="AE5" t="n">
-        <v>291090.851265703</v>
+        <v>383732.0886206219</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.084767015656949e-06</v>
+        <v>3.03935324769492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>263309.5489695658</v>
+        <v>347109.236654038</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>208.5963494870622</v>
+        <v>276.3044698520158</v>
       </c>
       <c r="AB6" t="n">
-        <v>285.4107279895175</v>
+        <v>378.0519653444335</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.1715286867545</v>
+        <v>341.9712163712259</v>
       </c>
       <c r="AD6" t="n">
-        <v>208596.3494870622</v>
+        <v>276304.4698520158</v>
       </c>
       <c r="AE6" t="n">
-        <v>285410.7279895175</v>
+        <v>378051.9653444336</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.113027823561942e-06</v>
+        <v>3.080554292053085e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>258171.5286867545</v>
+        <v>341971.2163712259</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>209.0108334227438</v>
+        <v>276.7189537876974</v>
       </c>
       <c r="AB7" t="n">
-        <v>285.9778431960576</v>
+        <v>378.6190805509738</v>
       </c>
       <c r="AC7" t="n">
-        <v>258.6845192139337</v>
+        <v>342.4842068984051</v>
       </c>
       <c r="AD7" t="n">
-        <v>209010.8334227438</v>
+        <v>276718.9537876974</v>
       </c>
       <c r="AE7" t="n">
-        <v>285977.8431960575</v>
+        <v>378619.0805509738</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.111998852571328e-06</v>
+        <v>3.079054169354186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>258684.5192139337</v>
+        <v>342484.2068984052</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.2768474164548</v>
+        <v>226.5891510642121</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.8755623687624</v>
+        <v>310.0292728937446</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.0319999252229</v>
+        <v>280.4405142176748</v>
       </c>
       <c r="AD2" t="n">
-        <v>167276.8474164548</v>
+        <v>226589.1510642121</v>
       </c>
       <c r="AE2" t="n">
-        <v>228875.5623687624</v>
+        <v>310029.2728937446</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.441491315414189e-06</v>
+        <v>3.91184258793431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>207031.9999252229</v>
+        <v>280440.5142176748</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1090706858844</v>
+        <v>345.1227347376199</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.9433910004978</v>
+        <v>472.2121514084903</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5410743857286</v>
+        <v>427.1448864319803</v>
       </c>
       <c r="AD2" t="n">
-        <v>271109.0706858844</v>
+        <v>345122.7347376199</v>
       </c>
       <c r="AE2" t="n">
-        <v>370943.3910004978</v>
+        <v>472212.1514084903</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786090671459239e-06</v>
+        <v>2.652064582972662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.13802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>335541.0743857286</v>
+        <v>427144.8864319803</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.5903211766692</v>
+        <v>282.2854315518629</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.3484327243731</v>
+        <v>386.2353810035721</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.065354232884</v>
+        <v>349.3736183253523</v>
       </c>
       <c r="AD3" t="n">
-        <v>216590.3211766692</v>
+        <v>282285.4315518629</v>
       </c>
       <c r="AE3" t="n">
-        <v>296348.4327243731</v>
+        <v>386235.3810035721</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.093064510066562e-06</v>
+        <v>3.107872598925467e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.48177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>268065.354232884</v>
+        <v>349373.6183253523</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.5719966819377</v>
+        <v>262.3523584031517</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.9584780045478</v>
+        <v>358.9620709363821</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.2894583494672</v>
+        <v>324.7032346926437</v>
       </c>
       <c r="AD4" t="n">
-        <v>196571.9966819377</v>
+        <v>262352.3584031517</v>
       </c>
       <c r="AE4" t="n">
-        <v>268958.4780045478</v>
+        <v>358962.070936382</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.209171723356162e-06</v>
+        <v>3.28027360471619e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>243289.4583494672</v>
+        <v>324703.2346926437</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.709977528614</v>
+        <v>261.490339249828</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.7790253693699</v>
+        <v>357.7826183012036</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.2225710184182</v>
+        <v>323.6363473615946</v>
       </c>
       <c r="AD5" t="n">
-        <v>195709.9775286141</v>
+        <v>261490.339249828</v>
       </c>
       <c r="AE5" t="n">
-        <v>267779.0253693699</v>
+        <v>357782.6183012036</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.215341551703242e-06</v>
+        <v>3.289434832364809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.62239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>242222.5710184182</v>
+        <v>323636.3473615946</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.1900383480613</v>
+        <v>383.6045073639362</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.7332539176347</v>
+        <v>524.8646104118071</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.5334486314773</v>
+        <v>474.7722686462108</v>
       </c>
       <c r="AD2" t="n">
-        <v>300190.0383480613</v>
+        <v>383604.5073639362</v>
       </c>
       <c r="AE2" t="n">
-        <v>410733.2539176347</v>
+        <v>524864.6104118071</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.658676830877803e-06</v>
+        <v>2.438988871291441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>371533.4486314773</v>
+        <v>474772.2686462108</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.4785512361242</v>
+        <v>305.5344246218041</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.3509217971776</v>
+        <v>418.0456789950517</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.254272418747</v>
+        <v>378.1479861225586</v>
       </c>
       <c r="AD3" t="n">
-        <v>230478.5512361242</v>
+        <v>305534.4246218042</v>
       </c>
       <c r="AE3" t="n">
-        <v>315350.9217971776</v>
+        <v>418045.6789950517</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.984557125854809e-06</v>
+        <v>2.918177100140974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>285254.272418747</v>
+        <v>378147.9861225586</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.9680526352408</v>
+        <v>276.4776849953215</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.2335056872121</v>
+        <v>378.2889659452172</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.7705184778666</v>
+        <v>342.1855979673031</v>
       </c>
       <c r="AD4" t="n">
-        <v>217968.0526352408</v>
+        <v>276477.6849953214</v>
       </c>
       <c r="AE4" t="n">
-        <v>298233.505687212</v>
+        <v>378288.9659452172</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.107069981158454e-06</v>
+        <v>3.098325206820438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>269770.5184778667</v>
+        <v>342185.5979673031</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.3368137684843</v>
+        <v>269.1195218870888</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.8461550681375</v>
+        <v>368.2212025612874</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.4243465845346</v>
+        <v>333.078687790541</v>
       </c>
       <c r="AD5" t="n">
-        <v>202336.8137684843</v>
+        <v>269119.5218870888</v>
       </c>
       <c r="AE5" t="n">
-        <v>276846.1550681375</v>
+        <v>368221.2025612874</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.158844216069903e-06</v>
+        <v>3.174456241159312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.70052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>250424.3465845346</v>
+        <v>333078.687790541</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.3080380966851</v>
+        <v>269.0907462152896</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.8067829244887</v>
+        <v>368.1818304176387</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.3887320630166</v>
+        <v>333.0430732690229</v>
       </c>
       <c r="AD6" t="n">
-        <v>202308.0380966851</v>
+        <v>269090.7462152896</v>
       </c>
       <c r="AE6" t="n">
-        <v>276806.7829244887</v>
+        <v>368181.8304176387</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.157893559214185e-06</v>
+        <v>3.173058354935575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>250388.7320630166</v>
+        <v>333043.0732690229</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.3164477416561</v>
+        <v>457.547802832685</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.1055921905823</v>
+        <v>626.0370894201144</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.6625321639929</v>
+        <v>566.2889882544314</v>
       </c>
       <c r="AD2" t="n">
-        <v>363316.4477416562</v>
+        <v>457547.8028326849</v>
       </c>
       <c r="AE2" t="n">
-        <v>497105.5921905823</v>
+        <v>626037.0894201144</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435614154355542e-06</v>
+        <v>2.077007088701358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.34114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>449662.5321639929</v>
+        <v>566288.9882544314</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.5947956134506</v>
+        <v>344.250846788635</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.080957742611</v>
+        <v>471.0191958517077</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.0928803721034</v>
+        <v>426.0657848792133</v>
       </c>
       <c r="AD3" t="n">
-        <v>275594.7956134506</v>
+        <v>344250.8467886351</v>
       </c>
       <c r="AE3" t="n">
-        <v>377080.9577426109</v>
+        <v>471019.1958517077</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.792206056995997e-06</v>
+        <v>2.592914449541088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>341092.8803721034</v>
+        <v>426065.7848792133</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.6763843127108</v>
+        <v>319.7436594785332</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.040535142971</v>
+        <v>437.4873809932282</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.3510524908426</v>
+        <v>395.7341993686293</v>
       </c>
       <c r="AD4" t="n">
-        <v>242676.3843127108</v>
+        <v>319743.6594785332</v>
       </c>
       <c r="AE4" t="n">
-        <v>332040.535142971</v>
+        <v>437487.3809932282</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.928669044282526e-06</v>
+        <v>2.790345347724674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>300351.0524908426</v>
+        <v>395734.1993686293</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.5792931439342</v>
+        <v>302.0646626099783</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.5934936705195</v>
+        <v>413.2981975353751</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.0919391869855</v>
+        <v>373.8535976302616</v>
       </c>
       <c r="AD5" t="n">
-        <v>233579.2931439342</v>
+        <v>302064.6626099783</v>
       </c>
       <c r="AE5" t="n">
-        <v>319593.4936705195</v>
+        <v>413298.1975353751</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.004288361720268e-06</v>
+        <v>2.899749297166406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>289091.9391869855</v>
+        <v>373853.5976302616</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.5428178752173</v>
+        <v>287.1134386872818</v>
       </c>
       <c r="AB6" t="n">
-        <v>299.0199248454003</v>
+        <v>392.8412733628945</v>
       </c>
       <c r="AC6" t="n">
-        <v>270.4818828953439</v>
+        <v>355.3490535893292</v>
       </c>
       <c r="AD6" t="n">
-        <v>218542.8178752173</v>
+        <v>287113.4386872818</v>
       </c>
       <c r="AE6" t="n">
-        <v>299019.9248454003</v>
+        <v>392841.2733628945</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.044874336387382e-06</v>
+        <v>2.958467969471007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>270481.8828953439</v>
+        <v>355349.0535893292</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.1605184728062</v>
+        <v>283.7311392848707</v>
       </c>
       <c r="AB7" t="n">
-        <v>294.3921135865053</v>
+        <v>388.2134621039972</v>
       </c>
       <c r="AC7" t="n">
-        <v>266.2957434478225</v>
+        <v>351.1629141418071</v>
       </c>
       <c r="AD7" t="n">
-        <v>215160.5184728062</v>
+        <v>283731.1392848706</v>
       </c>
       <c r="AE7" t="n">
-        <v>294392.1135865053</v>
+        <v>388213.4621039972</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.061767513089404e-06</v>
+        <v>2.982908553073734e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.85677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>266295.7434478225</v>
+        <v>351162.9141418071</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>215.3779290488026</v>
+        <v>283.948549860867</v>
       </c>
       <c r="AB8" t="n">
-        <v>294.6895843280611</v>
+        <v>388.5109328455532</v>
       </c>
       <c r="AC8" t="n">
-        <v>266.5648239993071</v>
+        <v>351.4319946932917</v>
       </c>
       <c r="AD8" t="n">
-        <v>215377.9290488026</v>
+        <v>283948.549860867</v>
       </c>
       <c r="AE8" t="n">
-        <v>294689.5843280611</v>
+        <v>388510.9328455532</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.061155782456741e-06</v>
+        <v>2.982023518012911e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>266564.8239993071</v>
+        <v>351431.9946932917</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.7550539821965</v>
+        <v>307.521617356342</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.1481744554222</v>
+        <v>420.7646437632025</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.4484188583862</v>
+        <v>380.6074567093282</v>
       </c>
       <c r="AD2" t="n">
-        <v>242755.0539821965</v>
+        <v>307521.617356342</v>
       </c>
       <c r="AE2" t="n">
-        <v>332148.1744554222</v>
+        <v>420764.6437632025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.932962068193022e-06</v>
+        <v>2.90269939731837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>300448.4188583862</v>
+        <v>380607.4567093282</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.4293130367761</v>
+        <v>259.1104460477983</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.0267637127083</v>
+        <v>354.5263434287085</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.637542754953</v>
+        <v>320.6908467927199</v>
       </c>
       <c r="AD3" t="n">
-        <v>194429.3130367761</v>
+        <v>259110.4460477983</v>
       </c>
       <c r="AE3" t="n">
-        <v>266026.7637127083</v>
+        <v>354526.3434287085</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.211935787805815e-06</v>
+        <v>3.321629939780963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>240637.542754953</v>
+        <v>320690.8467927199</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.7617196757574</v>
+        <v>253.4428526867764</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.272112439594</v>
+        <v>346.7716921554221</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.6229845156209</v>
+        <v>313.6762885533388</v>
       </c>
       <c r="AD4" t="n">
-        <v>188761.7196757574</v>
+        <v>253442.8526867764</v>
       </c>
       <c r="AE4" t="n">
-        <v>258272.112439594</v>
+        <v>346771.6921554221</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268035977406782e-06</v>
+        <v>3.40587473134917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>233622.9845156209</v>
+        <v>313676.2885533388</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.4762689824215</v>
+        <v>269.0293152020046</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.5639873766332</v>
+        <v>368.0977777951171</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.6463015639369</v>
+        <v>332.9670425108262</v>
       </c>
       <c r="AD2" t="n">
-        <v>198476.2689824215</v>
+        <v>269029.3152020046</v>
       </c>
       <c r="AE2" t="n">
-        <v>271563.9873766332</v>
+        <v>368097.7777951171</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.177285349339205e-06</v>
+        <v>3.33940432593682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>245646.3015639369</v>
+        <v>332967.0425108262</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.575984664123</v>
+        <v>240.356179746194</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.9672963168828</v>
+        <v>328.8659288948629</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.778838563212</v>
+        <v>297.4794262074652</v>
       </c>
       <c r="AD3" t="n">
-        <v>177575.984664123</v>
+        <v>240356.179746194</v>
       </c>
       <c r="AE3" t="n">
-        <v>242967.2963168828</v>
+        <v>328865.9288948629</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.359465989587992e-06</v>
+        <v>3.618823290627589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>219778.838563212</v>
+        <v>297479.4262074652</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9127241244864</v>
+        <v>232.1734639906452</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.8503292842484</v>
+        <v>317.6699762021855</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.5319820684258</v>
+        <v>287.3519995261549</v>
       </c>
       <c r="AD2" t="n">
-        <v>170912.7241244864</v>
+        <v>232173.4639906452</v>
       </c>
       <c r="AE2" t="n">
-        <v>233850.3292842484</v>
+        <v>317669.9762021855</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384476768828554e-06</v>
+        <v>3.725697916618704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>211531.9820684258</v>
+        <v>287351.9995261549</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.6403489112879</v>
+        <v>230.9010887774467</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.1094093843184</v>
+        <v>315.9290563022555</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.9572131203481</v>
+        <v>285.7772305780773</v>
       </c>
       <c r="AD3" t="n">
-        <v>169640.3489112879</v>
+        <v>230901.0887774467</v>
       </c>
       <c r="AE3" t="n">
-        <v>232109.4093843184</v>
+        <v>315929.0563022555</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.410944746213292e-06</v>
+        <v>3.767053609191828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>209957.2131203481</v>
+        <v>285777.2305780773</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.9220201740568</v>
+        <v>227.3771438973949</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.548851497412</v>
+        <v>311.107439451895</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.4045400563286</v>
+        <v>281.4157820727319</v>
       </c>
       <c r="AD2" t="n">
-        <v>161922.0201740568</v>
+        <v>227377.1438973949</v>
       </c>
       <c r="AE2" t="n">
-        <v>221548.851497412</v>
+        <v>311107.439451895</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.410135198656334e-06</v>
+        <v>3.92773981078391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>200404.5400563286</v>
+        <v>281415.7820727319</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.1631350899746</v>
+        <v>364.0497506276149</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.6998054721911</v>
+        <v>498.1089295501911</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.9845959674925</v>
+        <v>450.5701124141935</v>
       </c>
       <c r="AD2" t="n">
-        <v>281163.1350899746</v>
+        <v>364049.7506276149</v>
       </c>
       <c r="AE2" t="n">
-        <v>384699.8054721911</v>
+        <v>498108.9295501912</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721765404573659e-06</v>
+        <v>2.543703159031589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.61979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>347984.5959674925</v>
+        <v>450570.1124141936</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.8912728790749</v>
+        <v>290.2688379928472</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.3379169388564</v>
+        <v>397.1586298991619</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.1014560942693</v>
+        <v>359.2543676772231</v>
       </c>
       <c r="AD3" t="n">
-        <v>223891.2728790749</v>
+        <v>290268.8379928472</v>
       </c>
       <c r="AE3" t="n">
-        <v>306337.9169388564</v>
+        <v>397158.6298991619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03435484837759e-06</v>
+        <v>3.005516803080778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>277101.4560942693</v>
+        <v>359254.3676772231</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.470155432869</v>
+        <v>269.7623796920695</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.3968431328533</v>
+        <v>369.1007889709467</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.8270391567588</v>
+        <v>333.8743277077697</v>
       </c>
       <c r="AD4" t="n">
-        <v>203470.155432869</v>
+        <v>269762.3796920695</v>
       </c>
       <c r="AE4" t="n">
-        <v>278396.8431328533</v>
+        <v>369100.7889709467</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.151492800147229e-06</v>
+        <v>3.178574164535141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>251827.0391567588</v>
+        <v>333874.3277077697</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.5790702128249</v>
+        <v>264.8712944720252</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.7046445553412</v>
+        <v>362.4085903934312</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.7735346189227</v>
+        <v>327.8208231699326</v>
       </c>
       <c r="AD5" t="n">
-        <v>198579.0702128249</v>
+        <v>264871.2944720252</v>
       </c>
       <c r="AE5" t="n">
-        <v>271704.6445553412</v>
+        <v>362408.5903934312</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.185073331087496e-06</v>
+        <v>3.228185396360225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.67447916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>245773.5346189227</v>
+        <v>327820.8231699326</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.9851488712919</v>
+        <v>435.7186192644934</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.9191680056612</v>
+        <v>596.1694374265032</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.2616193398771</v>
+        <v>539.2718630475777</v>
       </c>
       <c r="AD2" t="n">
-        <v>341985.148871292</v>
+        <v>435718.6192644934</v>
       </c>
       <c r="AE2" t="n">
-        <v>467919.1680056612</v>
+        <v>596169.4374265033</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489807422734736e-06</v>
+        <v>2.163452178549204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>423261.6193398771</v>
+        <v>539271.8630475777</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.4082063602029</v>
+        <v>336.0837110719911</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.9337522243985</v>
+        <v>459.844560455597</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.059373064751</v>
+        <v>415.9576410016081</v>
       </c>
       <c r="AD3" t="n">
-        <v>259408.2063602029</v>
+        <v>336083.7110719911</v>
       </c>
       <c r="AE3" t="n">
-        <v>354933.7522243985</v>
+        <v>459844.560455597</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.840682478982496e-06</v>
+        <v>2.672982063589217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>321059.373064751</v>
+        <v>415957.6410016081</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.7141328405588</v>
+        <v>304.9459955662148</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.8827196428059</v>
+        <v>417.2405644015366</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.9718074524446</v>
+        <v>377.4197105358633</v>
       </c>
       <c r="AD4" t="n">
-        <v>236714.1328405588</v>
+        <v>304945.9955662148</v>
       </c>
       <c r="AE4" t="n">
-        <v>323882.7196428059</v>
+        <v>417240.5644015366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.968862190199983e-06</v>
+        <v>2.859120668651501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>292971.8074524446</v>
+        <v>377419.7105358632</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.7315156553969</v>
+        <v>287.4344850488973</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.5923065249717</v>
+        <v>393.2805431584228</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.8543741128696</v>
+        <v>355.7464000920912</v>
       </c>
       <c r="AD5" t="n">
-        <v>227731.5156553969</v>
+        <v>287434.4850488973</v>
       </c>
       <c r="AE5" t="n">
-        <v>311592.3065249717</v>
+        <v>393280.5431584228</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.042714391018054e-06</v>
+        <v>2.966366546415501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>281854.3741128696</v>
+        <v>355746.4000920912</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.9362515842218</v>
+        <v>281.0827734553059</v>
       </c>
       <c r="AB6" t="n">
-        <v>291.348773501816</v>
+        <v>384.5898511383323</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.5428554694603</v>
+        <v>347.8851355209353</v>
       </c>
       <c r="AD6" t="n">
-        <v>212936.2515842218</v>
+        <v>281082.7734553059</v>
       </c>
       <c r="AE6" t="n">
-        <v>291348.773501816</v>
+        <v>384589.8511383323</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.084088704614815e-06</v>
+        <v>3.026449042663627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>263542.8554694603</v>
+        <v>347885.1355209353</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.6599722663569</v>
+        <v>279.806494137441</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.6025118336445</v>
+        <v>382.8435894701599</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.9632545640049</v>
+        <v>346.3055346154796</v>
       </c>
       <c r="AD7" t="n">
-        <v>211659.9722663569</v>
+        <v>279806.494137441</v>
       </c>
       <c r="AE7" t="n">
-        <v>289602.5118336445</v>
+        <v>382843.58947016</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.091585426573861e-06</v>
+        <v>3.037335550011338e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>261963.2545640049</v>
+        <v>346305.5346154796</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.5549531712775</v>
+        <v>233.4253367030344</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.992567165442</v>
+        <v>319.3828436760018</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.8515221588522</v>
+        <v>288.9013933322953</v>
       </c>
       <c r="AD2" t="n">
-        <v>169554.9531712775</v>
+        <v>233425.3367030344</v>
       </c>
       <c r="AE2" t="n">
-        <v>231992.567165442</v>
+        <v>319382.8436760018</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.297007606587943e-06</v>
+        <v>3.828974826669896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.27864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209851.5221588522</v>
+        <v>288901.3933322953</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.0211400922851</v>
+        <v>279.4762165527941</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.5696540542219</v>
+        <v>382.3916891080273</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.360901105989</v>
+        <v>345.8967629896628</v>
       </c>
       <c r="AD2" t="n">
-        <v>216021.1400922851</v>
+        <v>279476.2165527941</v>
       </c>
       <c r="AE2" t="n">
-        <v>295569.6540542219</v>
+        <v>382391.6891080273</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.088251006762571e-06</v>
+        <v>3.17812303500926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>267360.901105989</v>
+        <v>345896.7629896628</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.2926498966727</v>
+        <v>244.7476368486273</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.0526016557526</v>
+        <v>334.8745142398232</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.3788094978126</v>
+        <v>302.9145606002067</v>
       </c>
       <c r="AD3" t="n">
-        <v>181292.6498966727</v>
+        <v>244747.6368486272</v>
       </c>
       <c r="AE3" t="n">
-        <v>248052.6016557526</v>
+        <v>334874.5142398232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330143652533652e-06</v>
+        <v>3.546261054354085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>224378.8094978126</v>
+        <v>302914.5606002067</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.8494301243385</v>
+        <v>245.304417076293</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.8144129266545</v>
+        <v>335.6363255107252</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.0679145702288</v>
+        <v>303.603665672623</v>
       </c>
       <c r="AD4" t="n">
-        <v>181849.4301243385</v>
+        <v>245304.417076293</v>
       </c>
       <c r="AE4" t="n">
-        <v>248814.4129266545</v>
+        <v>335636.3255107251</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.328184055597723e-06</v>
+        <v>3.543278730801388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>225067.9145702288</v>
+        <v>303603.665672623</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.2019786680437</v>
+        <v>326.6979690453275</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.4421176963805</v>
+        <v>447.0025741450011</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.3781682181073</v>
+        <v>404.3412758406546</v>
       </c>
       <c r="AD2" t="n">
-        <v>253201.9786680437</v>
+        <v>326697.9690453275</v>
       </c>
       <c r="AE2" t="n">
-        <v>346442.1176963805</v>
+        <v>447002.5741450011</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.852787194822005e-06</v>
+        <v>2.766045816895594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>313378.1682181073</v>
+        <v>404341.2758406546</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.582610050595</v>
+        <v>274.7417870742548</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.7601732032876</v>
+        <v>375.9138338272024</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3921847432811</v>
+        <v>340.0371451251129</v>
       </c>
       <c r="AD3" t="n">
-        <v>209582.610050595</v>
+        <v>274741.7870742548</v>
       </c>
       <c r="AE3" t="n">
-        <v>286760.1732032876</v>
+        <v>375913.8338272024</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.154503752391895e-06</v>
+        <v>3.216481692254992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>259392.184743281</v>
+        <v>340037.145125113</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.0148545224929</v>
+        <v>257.2592828921699</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.7231950550757</v>
+        <v>351.9935003314566</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.6492620534161</v>
+        <v>318.3997346859081</v>
       </c>
       <c r="AD4" t="n">
-        <v>192014.8545224929</v>
+        <v>257259.2828921699</v>
       </c>
       <c r="AE4" t="n">
-        <v>262723.1950550757</v>
+        <v>351993.5003314567</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.246925515983005e-06</v>
+        <v>3.354459131480473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>237649.2620534161</v>
+        <v>318399.7346859081</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.3036295957871</v>
+        <v>257.5480579654641</v>
       </c>
       <c r="AB5" t="n">
-        <v>263.1183098502137</v>
+        <v>352.3886151265947</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.0066676470534</v>
+        <v>318.7571402795454</v>
       </c>
       <c r="AD5" t="n">
-        <v>192303.6295957871</v>
+        <v>257548.0579654641</v>
       </c>
       <c r="AE5" t="n">
-        <v>263118.3098502137</v>
+        <v>352388.6151265947</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.247252539098597e-06</v>
+        <v>3.354947347786933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>238006.6676470534</v>
+        <v>318757.1402795453</v>
       </c>
     </row>
   </sheetData>
